--- a/SproWeight/SproWeight Source Data.xlsx
+++ b/SproWeight/SproWeight Source Data.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/Documents/GitHub/LifeData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renato/Documents/GitHub/LifeData/SproWeight/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2380" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="8260" yWindow="460" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name=" " sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' '!$A$1:$O$542</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>is_send</t>
   </si>
@@ -100,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -162,7 +163,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -22497,4 +22498,94 @@
   <autoFilter ref="A1:O542"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>